--- a/acs_dict.xlsx
+++ b/acs_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennah/code/cb3-census-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F4FF8B-4259-9E40-805A-73B5233B1936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A70DA7-F66F-BC4C-A1A7-7934235C4722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{139C5A94-ED69-B840-976C-53C9B26A8F22}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="327">
   <si>
     <t>colname</t>
   </si>
@@ -914,13 +914,121 @@
   </si>
   <si>
     <t>hh_size</t>
+  </si>
+  <si>
+    <t>B17001_001E</t>
+  </si>
+  <si>
+    <t>poverty_status_total</t>
+  </si>
+  <si>
+    <t>B17001_002E</t>
+  </si>
+  <si>
+    <t>poverty_status_inpoverty</t>
+  </si>
+  <si>
+    <t>B17001_016E</t>
+  </si>
+  <si>
+    <t>inpoverty_75over_male</t>
+  </si>
+  <si>
+    <t>B17001_030E</t>
+  </si>
+  <si>
+    <t>inpoverty_75over_female</t>
+  </si>
+  <si>
+    <t>B06010_001E</t>
+  </si>
+  <si>
+    <t>B06010_002E</t>
+  </si>
+  <si>
+    <t>B06010_003E</t>
+  </si>
+  <si>
+    <t>B06010_004E</t>
+  </si>
+  <si>
+    <t>B06010_005E</t>
+  </si>
+  <si>
+    <t>B06010_006E</t>
+  </si>
+  <si>
+    <t>B06010_007E</t>
+  </si>
+  <si>
+    <t>B06010_008E</t>
+  </si>
+  <si>
+    <t>B06010_009E</t>
+  </si>
+  <si>
+    <t>B06010_010E</t>
+  </si>
+  <si>
+    <t>income_levels_total</t>
+  </si>
+  <si>
+    <t>income_lvl</t>
+  </si>
+  <si>
+    <t>no_income</t>
+  </si>
+  <si>
+    <t>with_income</t>
+  </si>
+  <si>
+    <t>income_upto9999_or_loss</t>
+  </si>
+  <si>
+    <t>income_10000_to_14999</t>
+  </si>
+  <si>
+    <t>income_15000_to_24999</t>
+  </si>
+  <si>
+    <t>income_25000_to_34999</t>
+  </si>
+  <si>
+    <t>income_35000_to_49999</t>
+  </si>
+  <si>
+    <t>income_50000_to_64999</t>
+  </si>
+  <si>
+    <t>income_65000_to_74999</t>
+  </si>
+  <si>
+    <t>B06010_011E</t>
+  </si>
+  <si>
+    <t>income_75000_or_more</t>
+  </si>
+  <si>
+    <t>B19313_001E</t>
+  </si>
+  <si>
+    <t>aggregate_income</t>
+  </si>
+  <si>
+    <t>B06001_012E</t>
+  </si>
+  <si>
+    <t>total_over75</t>
+  </si>
+  <si>
+    <t>not_in_2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -960,6 +1068,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1325,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F22D90-69CC-424A-BF06-761D0AA8E975}">
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,7 +1464,9 @@
       <c r="D1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4200,7 +4316,9 @@
       <c r="D85" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -4234,7 +4352,9 @@
       <c r="D86" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -4268,7 +4388,9 @@
       <c r="D87" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -4302,7 +4424,9 @@
       <c r="D88" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -4336,7 +4460,9 @@
       <c r="D89" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -4370,7 +4496,9 @@
       <c r="D90" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -4404,7 +4532,9 @@
       <c r="D91" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -4438,7 +4568,9 @@
       <c r="D92" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -4472,7 +4604,9 @@
       <c r="D93" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4506,7 +4640,9 @@
       <c r="D94" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4540,7 +4676,9 @@
       <c r="D95" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -4574,7 +4712,9 @@
       <c r="D96" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -4608,7 +4748,9 @@
       <c r="D97" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4642,7 +4784,9 @@
       <c r="D98" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4676,7 +4820,9 @@
       <c r="D99" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -4710,7 +4856,9 @@
       <c r="D100" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -4744,7 +4892,9 @@
       <c r="D101" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -4778,7 +4928,9 @@
       <c r="D102" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -4812,7 +4964,9 @@
       <c r="D103" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -4846,7 +5000,9 @@
       <c r="D104" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -4880,7 +5036,9 @@
       <c r="D105" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -4914,7 +5072,9 @@
       <c r="D106" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -4948,7 +5108,9 @@
       <c r="D107" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E107" s="2"/>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -4982,7 +5144,9 @@
       <c r="D108" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E108" s="2"/>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -5016,7 +5180,9 @@
       <c r="D109" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -5050,7 +5216,9 @@
       <c r="D110" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -5084,7 +5252,9 @@
       <c r="D111" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E111" s="2"/>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -5786,7 +5956,234 @@
         <v>290</v>
       </c>
     </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A122" r:id="rId1" display="https://api.census.gov/data/2023/acs/acs5/variables/B25038_001E.json" xr:uid="{CFC226C4-8A91-394A-BBAB-50FAA5E54341}"/>
     <hyperlink ref="A123" r:id="rId2" display="https://api.census.gov/data/2023/acs/acs5/variables/B25038_002E.json" xr:uid="{6A7A9196-9D42-D14D-9F36-2F3D3B9B2D71}"/>
